--- a/Stromingen/Munsflow_H2O_1995/data/US_BC_soilprops.xlsx
+++ b/Stromingen/Munsflow_H2O_1995/data/US_BC_soilprops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Theo/GRWMODELS/python/tools/Stromingen/Munsflow_H2O_1995/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39401E1-A5C3-4148-A120-972E6837BF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6750D9-029A-CC46-ACF3-00B9F57644E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{C606428B-0DF1-4D42-BCF9-7F19345BAEB9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Soil Texture</t>
   </si>
@@ -84,18 +84,12 @@
     <t>Sandy loam</t>
   </si>
   <si>
-    <t>loam</t>
-  </si>
-  <si>
     <t>Sand</t>
   </si>
   <si>
     <t>Sandy clay</t>
   </si>
   <si>
-    <t>sigma_p</t>
-  </si>
-  <si>
     <t>sigma_k</t>
   </si>
   <si>
@@ -111,33 +105,15 @@
     <t>psi_b</t>
   </si>
   <si>
-    <t>s_psi_b</t>
-  </si>
-  <si>
     <t>lambda</t>
   </si>
   <si>
-    <t>s_lambda</t>
-  </si>
-  <si>
     <t>theta_r</t>
   </si>
   <si>
-    <t>s_theta_r</t>
-  </si>
-  <si>
-    <t>por</t>
-  </si>
-  <si>
-    <t>s_por</t>
-  </si>
-  <si>
     <t>Ks</t>
   </si>
   <si>
-    <t>s-Ks</t>
-  </si>
-  <si>
     <t>cm/d</t>
   </si>
   <si>
@@ -180,18 +156,9 @@
     <t>US12</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>Loam</t>
   </si>
   <si>
-    <t>m/d</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>Main cat</t>
   </si>
   <si>
@@ -217,6 +184,9 @@
   </si>
   <si>
     <t>sigma_por</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
 </sst>
 </file>
@@ -595,24 +565,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1874B7AF-CC4A-564F-8F62-283C5F1531DE}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -621,87 +592,96 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
         <v>5</v>
       </c>
       <c r="M1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -710,10 +690,10 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>4.8000000000000001E-2</v>
+        <v>4.8</v>
       </c>
       <c r="E4">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>0.38</v>
@@ -728,10 +708,10 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="J4">
-        <v>1.25</v>
+        <v>125</v>
       </c>
       <c r="K4">
-        <v>1.88</v>
+        <v>188</v>
       </c>
       <c r="L4">
         <v>0.09</v>
@@ -742,19 +722,19 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5">
-        <v>6.2E-2</v>
+        <v>6.2</v>
       </c>
       <c r="E5">
-        <v>0.17</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>0.41</v>
@@ -769,10 +749,10 @@
         <v>0.01</v>
       </c>
       <c r="J5">
-        <v>0.53</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>0.42</v>
+        <v>42</v>
       </c>
       <c r="L5">
         <v>0.31</v>
@@ -783,19 +763,19 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>0.25</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>0.44</v>
+        <v>44</v>
       </c>
       <c r="F6">
         <v>0.43</v>
@@ -810,10 +790,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="J6">
-        <v>0.28000000000000003</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="K6">
-        <v>0.16</v>
+        <v>16</v>
       </c>
       <c r="L6">
         <v>0.56000000000000005</v>
@@ -824,19 +804,19 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7">
-        <v>3.5</v>
+        <v>350</v>
       </c>
       <c r="E7">
-        <v>2.7</v>
+        <v>270</v>
       </c>
       <c r="F7">
         <v>0.41</v>
@@ -851,10 +831,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="J7">
-        <v>8.1000000000000003E-2</v>
+        <v>8.1</v>
       </c>
       <c r="K7">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="L7">
         <v>1.28</v>
@@ -865,7 +845,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -874,10 +854,10 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>7.9000000000000001E-2</v>
+        <v>7.9</v>
       </c>
       <c r="F8">
         <v>0.46</v>
@@ -892,10 +872,10 @@
         <v>0.01</v>
       </c>
       <c r="J8">
-        <v>0.62</v>
+        <v>62</v>
       </c>
       <c r="K8">
-        <v>0.27</v>
+        <v>27</v>
       </c>
       <c r="L8">
         <v>0.37</v>
@@ -906,19 +886,19 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9">
-        <v>0.11</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>0.3</v>
+        <v>30</v>
       </c>
       <c r="F9">
         <v>0.45</v>
@@ -933,10 +913,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="J9">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>0.3</v>
+        <v>30</v>
       </c>
       <c r="L9">
         <v>0.41</v>
@@ -947,7 +927,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -956,10 +936,10 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>4.7999999999999996E-3</v>
+        <v>0.48</v>
       </c>
       <c r="E10">
-        <v>2.5999999999999999E-2</v>
+        <v>2.6</v>
       </c>
       <c r="F10">
         <v>0.36</v>
@@ -974,10 +954,10 @@
         <v>2.3E-2</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="L10">
         <v>0.09</v>
@@ -988,19 +968,19 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11">
-        <v>1.7000000000000001E-2</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="E11">
-        <v>4.5999999999999999E-2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F11">
         <v>0.43</v>
@@ -1015,10 +995,10 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="K11">
-        <v>0.6</v>
+        <v>60</v>
       </c>
       <c r="L11">
         <v>0.23</v>
@@ -1029,19 +1009,19 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>7.1</v>
+        <v>710</v>
       </c>
       <c r="E12">
-        <v>3.7</v>
+        <v>370</v>
       </c>
       <c r="F12">
         <v>0.43</v>
@@ -1056,10 +1036,10 @@
         <v>0.01</v>
       </c>
       <c r="J12">
-        <v>6.9000000000000006E-2</v>
+        <v>6.9</v>
       </c>
       <c r="K12">
-        <v>1.4E-2</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="L12">
         <v>1.68</v>
@@ -1070,19 +1050,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>2.9000000000000001E-2</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="E13">
-        <v>6.7000000000000004E-2</v>
+        <v>6.7</v>
       </c>
       <c r="F13">
         <v>0.38</v>
@@ -1097,10 +1077,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="J13">
-        <v>0.37</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.23</v>
+        <v>23</v>
       </c>
       <c r="L13">
         <v>0.23</v>
@@ -1111,19 +1091,19 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14">
-        <v>0.31</v>
+        <v>31</v>
       </c>
       <c r="E14">
-        <v>0.66</v>
+        <v>66</v>
       </c>
       <c r="F14">
         <v>0.39</v>
@@ -1138,10 +1118,10 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="J14">
-        <v>0.17</v>
+        <v>17</v>
       </c>
       <c r="K14">
-        <v>0.11</v>
+        <v>11</v>
       </c>
       <c r="L14">
         <v>0.48</v>
@@ -1152,19 +1132,19 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15">
-        <v>1.1000000000000001</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="E15">
-        <v>1.4</v>
+        <v>140</v>
       </c>
       <c r="F15">
         <v>0.41</v>
@@ -1179,608 +1159,15 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="J15">
-        <v>0.13</v>
+        <v>13</v>
       </c>
       <c r="K15">
-        <v>6.6000000000000003E-2</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="L15">
         <v>0.89</v>
       </c>
       <c r="M15">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <v>4.8</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>0.38</v>
-      </c>
-      <c r="G21">
-        <v>0.09</v>
-      </c>
-      <c r="H21">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="I21">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="J21">
-        <v>125</v>
-      </c>
-      <c r="K21">
-        <v>188</v>
-      </c>
-      <c r="L21">
-        <v>0.09</v>
-      </c>
-      <c r="M21">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22">
-        <v>6.2</v>
-      </c>
-      <c r="E22">
-        <v>17</v>
-      </c>
-      <c r="F22">
-        <v>0.41</v>
-      </c>
-      <c r="G22">
-        <v>0.09</v>
-      </c>
-      <c r="H22">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I22">
-        <v>0.01</v>
-      </c>
-      <c r="J22">
-        <v>53</v>
-      </c>
-      <c r="K22">
-        <v>42</v>
-      </c>
-      <c r="L22">
-        <v>0.31</v>
-      </c>
-      <c r="M22">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23">
-        <v>25</v>
-      </c>
-      <c r="E23">
-        <v>44</v>
-      </c>
-      <c r="F23">
-        <v>0.43</v>
-      </c>
-      <c r="G23">
-        <v>0.1</v>
-      </c>
-      <c r="H23">
-        <v>7.8E-2</v>
-      </c>
-      <c r="I23">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="J23">
-        <v>28.000000000000004</v>
-      </c>
-      <c r="K23">
-        <v>16</v>
-      </c>
-      <c r="L23">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="M23">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>350</v>
-      </c>
-      <c r="E24">
-        <v>270</v>
-      </c>
-      <c r="F24">
-        <v>0.41</v>
-      </c>
-      <c r="G24">
-        <v>0.09</v>
-      </c>
-      <c r="H24">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="I24">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J24">
-        <v>8.1</v>
-      </c>
-      <c r="K24">
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="L24">
-        <v>1.28</v>
-      </c>
-      <c r="M24">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25">
-        <v>7.9</v>
-      </c>
-      <c r="F25">
-        <v>0.46</v>
-      </c>
-      <c r="G25">
-        <v>0.11</v>
-      </c>
-      <c r="H25">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="I25">
-        <v>0.01</v>
-      </c>
-      <c r="J25">
-        <v>62</v>
-      </c>
-      <c r="K25">
-        <v>27</v>
-      </c>
-      <c r="L25">
-        <v>0.37</v>
-      </c>
-      <c r="M25">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>11</v>
-      </c>
-      <c r="E26">
-        <v>30</v>
-      </c>
-      <c r="F26">
-        <v>0.45</v>
-      </c>
-      <c r="G26">
-        <v>0.08</v>
-      </c>
-      <c r="H26">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="I26">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J26">
-        <v>50</v>
-      </c>
-      <c r="K26">
-        <v>30</v>
-      </c>
-      <c r="L26">
-        <v>0.41</v>
-      </c>
-      <c r="M26">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27">
-        <v>0.48</v>
-      </c>
-      <c r="E27">
-        <v>2.6</v>
-      </c>
-      <c r="F27">
-        <v>0.36</v>
-      </c>
-      <c r="G27">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H27">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I27">
-        <v>2.3E-2</v>
-      </c>
-      <c r="J27">
-        <v>200</v>
-      </c>
-      <c r="K27">
-        <v>200</v>
-      </c>
-      <c r="L27">
-        <v>0.09</v>
-      </c>
-      <c r="M27">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28">
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="E28">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F28">
-        <v>0.43</v>
-      </c>
-      <c r="G28">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H28">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="I28">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="J28">
-        <v>100</v>
-      </c>
-      <c r="K28">
-        <v>60</v>
-      </c>
-      <c r="L28">
-        <v>0.23</v>
-      </c>
-      <c r="M28">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29">
-        <v>710</v>
-      </c>
-      <c r="E29">
-        <v>370</v>
-      </c>
-      <c r="F29">
-        <v>0.43</v>
-      </c>
-      <c r="G29">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H29">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="I29">
-        <v>0.01</v>
-      </c>
-      <c r="J29">
-        <v>6.9</v>
-      </c>
-      <c r="K29">
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="L29">
-        <v>1.68</v>
-      </c>
-      <c r="M29">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30">
-        <v>2.9000000000000004</v>
-      </c>
-      <c r="E30">
-        <v>6.7</v>
-      </c>
-      <c r="F30">
-        <v>0.38</v>
-      </c>
-      <c r="G30">
-        <v>0.05</v>
-      </c>
-      <c r="H30">
-        <v>0.1</v>
-      </c>
-      <c r="I30">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="J30">
-        <v>37</v>
-      </c>
-      <c r="K30">
-        <v>23</v>
-      </c>
-      <c r="L30">
-        <v>0.23</v>
-      </c>
-      <c r="M30">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31">
-        <v>31</v>
-      </c>
-      <c r="E31">
-        <v>66</v>
-      </c>
-      <c r="F31">
-        <v>0.39</v>
-      </c>
-      <c r="G31">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H31">
-        <v>0.1</v>
-      </c>
-      <c r="I31">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J31">
-        <v>17</v>
-      </c>
-      <c r="K31">
-        <v>11</v>
-      </c>
-      <c r="L31">
-        <v>0.48</v>
-      </c>
-      <c r="M31">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32">
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E32">
-        <v>140</v>
-      </c>
-      <c r="F32">
-        <v>0.41</v>
-      </c>
-      <c r="G32">
-        <v>0.09</v>
-      </c>
-      <c r="H32">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="I32">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="J32">
-        <v>13</v>
-      </c>
-      <c r="K32">
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="L32">
-        <v>0.89</v>
-      </c>
-      <c r="M32">
         <v>0.17</v>
       </c>
     </row>
@@ -1792,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A446D63F-B4E5-3446-ADFB-1E9305FB2E23}">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -1815,17 +1202,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
